--- a/data/trans_dic/P04D$colectiva-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P04D$colectiva-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.01309609618547327</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.04920701321628079</v>
+        <v>0.0492070132162808</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.02121333325514846</v>
@@ -655,7 +655,7 @@
         <v>0.02194826220871391</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.05684690365233307</v>
+        <v>0.05684690365233306</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.02354532526699434</v>
@@ -664,7 +664,7 @@
         <v>0.01751573863146598</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.05314775292048227</v>
+        <v>0.05314775292048228</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01552444160773134</v>
+        <v>0.01527754502593857</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.006119090410547265</v>
+        <v>0.005838331189833543</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03591102881111147</v>
+        <v>0.03421177243152752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01167001474192254</v>
+        <v>0.01190729277499154</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01348664013505947</v>
+        <v>0.01301661609568715</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04395465116884075</v>
+        <v>0.04431716596495541</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01609331142770263</v>
+        <v>0.01583545162102859</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01140796157134836</v>
+        <v>0.01178244885047951</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04360266523483746</v>
+        <v>0.0440385486986354</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04161589833152046</v>
+        <v>0.04115187129841825</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02336323805627791</v>
+        <v>0.02499318996654401</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06567450337172358</v>
+        <v>0.0644288670654124</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03528278085503161</v>
+        <v>0.03521974587040056</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03464107293103317</v>
+        <v>0.03443334046175996</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07121027596528516</v>
+        <v>0.0738143785044693</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03363442539294295</v>
+        <v>0.03335384799060921</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02546579607131469</v>
+        <v>0.02490806560947648</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06421867928214316</v>
+        <v>0.0639935958867227</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.01178203323170252</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.05780919360000409</v>
+        <v>0.0578091936000041</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02489948866164928</v>
+        <v>0.02347847096023343</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00758077148510341</v>
+        <v>0.007713174008166043</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04026099756680052</v>
+        <v>0.03949951361824791</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02460266382093975</v>
+        <v>0.02372395086941373</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004616804279701607</v>
+        <v>0.004612312623985528</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05142869625255757</v>
+        <v>0.05160032689052531</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02738826563871396</v>
+        <v>0.02758447822755335</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00759693451446519</v>
+        <v>0.007876323993510126</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04835460357818245</v>
+        <v>0.04878758201329569</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0487961977358464</v>
+        <v>0.04859288180143295</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.023670844349515</v>
+        <v>0.02459739380636694</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06678795825913585</v>
+        <v>0.06824499379845608</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04877125274622901</v>
+        <v>0.04852756067071925</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01693669417904258</v>
+        <v>0.01682291919140182</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07699268556177269</v>
+        <v>0.07781222630558442</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04423219294093306</v>
+        <v>0.04482995098743284</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01722100118560024</v>
+        <v>0.01737821213179448</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06710572461712738</v>
+        <v>0.0690377564461343</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.02056179154083372</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.03490908541175027</v>
+        <v>0.03490908541175028</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.007202593697311963</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002693805298926371</v>
+        <v>0.002808046247930934</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01017494450915195</v>
+        <v>0.009775027630294066</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03485705750740246</v>
+        <v>0.03582773574458478</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.002533984330998727</v>
+        <v>0.002543613089817102</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01165457185035251</v>
+        <v>0.01171215457404677</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02479282125681427</v>
+        <v>0.02400938651086772</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.003934479411789444</v>
+        <v>0.003878564311842833</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01323997412333052</v>
+        <v>0.01326727516268342</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03191368591991725</v>
+        <v>0.03222208022529305</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01615565124720537</v>
+        <v>0.01643381033473964</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03182240357068847</v>
+        <v>0.03236765573446296</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07245973609727736</v>
+        <v>0.07180575383793855</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01416221885072037</v>
+        <v>0.01420406905584324</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03359514836427747</v>
+        <v>0.03243005757968747</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05063223878613985</v>
+        <v>0.05008015086350228</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01313570016017289</v>
+        <v>0.01195827819818087</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02900973044901779</v>
+        <v>0.02824218805675024</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05466897872857557</v>
+        <v>0.05496986553619751</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.06087253033556393</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.07935531454213286</v>
+        <v>0.07935531454213285</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.03808417252523382</v>
@@ -982,7 +982,7 @@
         <v>0.04545413932587342</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.08117645237775853</v>
+        <v>0.08117645237775854</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.04380992356604897</v>
@@ -991,7 +991,7 @@
         <v>0.05275007577727045</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.08032131194937091</v>
+        <v>0.08032131194937092</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03785001823707758</v>
+        <v>0.0380268612719789</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04806980292576243</v>
+        <v>0.04573639789967451</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06136184798189393</v>
+        <v>0.06360366647538616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02823059573846495</v>
+        <v>0.02754130387619535</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03229167260849032</v>
+        <v>0.03269575830271692</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06800628290095032</v>
+        <v>0.06784600971369843</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03527319553021979</v>
+        <v>0.03576015593829682</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04266347232385778</v>
+        <v>0.04342449945772459</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06977157691320297</v>
+        <v>0.06976437105978003</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06592672566587011</v>
+        <v>0.0659740468792748</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07878165968151549</v>
+        <v>0.07706265678838026</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09914832223652319</v>
+        <v>0.1014382108475457</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05184652329049535</v>
+        <v>0.05148910060882688</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05967082109008067</v>
+        <v>0.06207437451697625</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09665463749158347</v>
+        <v>0.09720045653485256</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05429960551793618</v>
+        <v>0.05452180293426914</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06283618692098854</v>
+        <v>0.06349085996983708</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09246252659405667</v>
+        <v>0.09276324679179233</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.02798933878433816</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.05879632095483153</v>
+        <v>0.05879632095483152</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.02689166906771153</v>
@@ -1100,7 +1100,7 @@
         <v>0.02636716231506373</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.06005392701313575</v>
+        <v>0.06005392701313574</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0259199288011123</v>
+        <v>0.02515502401502953</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02311846522341529</v>
+        <v>0.02292903123459043</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05147590474289751</v>
+        <v>0.05096337191556996</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02203091143182783</v>
+        <v>0.02134580356298643</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02002681159401866</v>
+        <v>0.01936549372209201</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05481839067662377</v>
+        <v>0.05510120665137194</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02517127709178358</v>
+        <v>0.02521106298712206</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02277001817482422</v>
+        <v>0.02293270302368387</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05457759291191023</v>
+        <v>0.05501806435664433</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03797670867510351</v>
+        <v>0.03738986369802896</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03480126139815361</v>
+        <v>0.03441595435657473</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06871395380824424</v>
+        <v>0.06750251720651521</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03327376803973597</v>
+        <v>0.03286093385893399</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03048360789579132</v>
+        <v>0.0307555107457878</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0686737407626877</v>
+        <v>0.06837085943372589</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03333089214003773</v>
+        <v>0.0335907406379239</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03037811011342038</v>
+        <v>0.03063721549268442</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06567318986715388</v>
+        <v>0.06548915967923617</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10878</v>
+        <v>10705</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4129</v>
+        <v>3940</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24726</v>
+        <v>23556</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8121</v>
+        <v>8287</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9074</v>
+        <v>8758</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>32241</v>
+        <v>32507</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>22476</v>
+        <v>22116</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15374</v>
+        <v>15878</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>62005</v>
+        <v>62625</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>29160</v>
+        <v>28835</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15766</v>
+        <v>16865</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45220</v>
+        <v>44362</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>24554</v>
+        <v>24510</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>23308</v>
+        <v>23168</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>52233</v>
+        <v>54144</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>46975</v>
+        <v>46583</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>34319</v>
+        <v>33567</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>91322</v>
+        <v>91002</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>25262</v>
+        <v>23820</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7751</v>
+        <v>7886</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>42184</v>
+        <v>41386</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>25343</v>
+        <v>24438</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4815</v>
+        <v>4810</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>54925</v>
+        <v>55109</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>56000</v>
+        <v>56401</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>15690</v>
+        <v>16267</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>102306</v>
+        <v>103222</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>49507</v>
+        <v>49301</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24202</v>
+        <v>25149</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>69978</v>
+        <v>71505</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>50239</v>
+        <v>49988</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17663</v>
+        <v>17545</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>82227</v>
+        <v>83103</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>90440</v>
+        <v>91662</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>35567</v>
+        <v>35892</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>141979</v>
+        <v>146067</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2038</v>
+        <v>2125</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7728</v>
+        <v>7425</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27807</v>
+        <v>28582</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1967</v>
+        <v>1974</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9149</v>
+        <v>9194</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>20086</v>
+        <v>19451</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6031</v>
+        <v>5945</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20450</v>
+        <v>20492</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>51314</v>
+        <v>51810</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12225</v>
+        <v>12435</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24171</v>
+        <v>24585</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>57805</v>
+        <v>57283</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10992</v>
+        <v>11025</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26373</v>
+        <v>25458</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41020</v>
+        <v>40573</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20135</v>
+        <v>18330</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>44807</v>
+        <v>43622</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>87903</v>
+        <v>88387</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>35872</v>
+        <v>36040</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>45069</v>
+        <v>42881</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>60621</v>
+        <v>62835</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>29696</v>
+        <v>28971</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>33705</v>
+        <v>34127</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>75894</v>
+        <v>75716</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>70534</v>
+        <v>71507</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>84531</v>
+        <v>86039</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>146793</v>
+        <v>146778</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>62481</v>
+        <v>62526</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>73863</v>
+        <v>72251</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>97951</v>
+        <v>100213</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>54537</v>
+        <v>54161</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>62283</v>
+        <v>64792</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>107866</v>
+        <v>108475</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>108580</v>
+        <v>109024</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>124500</v>
+        <v>125797</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>194533</v>
+        <v>195166</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>88638</v>
+        <v>86022</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>78472</v>
+        <v>77829</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>181297</v>
+        <v>179492</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>78300</v>
+        <v>75865</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>70986</v>
+        <v>68642</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>204343</v>
+        <v>205398</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>175539</v>
+        <v>175817</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>157999</v>
+        <v>159128</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>395667</v>
+        <v>398860</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>129868</v>
+        <v>127862</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>118128</v>
+        <v>116820</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>242009</v>
+        <v>237743</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>118258</v>
+        <v>116791</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>108050</v>
+        <v>109014</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>255991</v>
+        <v>254862</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>232443</v>
+        <v>234255</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>210790</v>
+        <v>212588</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>476106</v>
+        <v>474772</v>
       </c>
     </row>
     <row r="24">
